--- a/analysis/wsc_val_predictions/right_wrong_comp/more_right.xlsx
+++ b/analysis/wsc_val_predictions/right_wrong_comp/more_right.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Documents\NYU\2020 Spring\NLU\Project\Projects\WSC\wsc-trick\analysis\wsc_val_predictions\right_wrong_comp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4F982-BA1B-43D1-88DF-270AC8F9F988}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DA4975-E925-48C0-B2A7-EAFA89253F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="val_gold" sheetId="1" r:id="rId1"/>
@@ -5224,8 +5224,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9400,8 +9400,8 @@
   </sheetPr>
   <dimension ref="A1:S105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
